--- a/biology/Médecine/Shigella_flexneri/Shigella_flexneri.xlsx
+++ b/biology/Médecine/Shigella_flexneri/Shigella_flexneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Shigella flexneri est une espèce de bactéries en forme de tige du genre Shigella, responsable d'une shigellose. Son nom a été donné pour rendre hommage à Simon Flexner qui a isolé la bactérie dans les selles d'un malade.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quinze sérotypes ont été décrits, dépendant du type de lipopolysaccharide O[1], plusieurs ayant une immunogénicité croisée[2]. Les souches sont endémiques dans certaines régions, avec acquisition d'une résistance aux antibiotiques mais avec peu d'extension géographique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quinze sérotypes ont été décrits, dépendant du type de lipopolysaccharide O, plusieurs ayant une immunogénicité croisée. Les souches sont endémiques dans certaines régions, avec acquisition d'une résistance aux antibiotiques mais avec peu d'extension géographique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Pathogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shigella flexneri secrète plusieurs entérotoxines, ShET1, ShET2, PiC et SepA[4], provoquant une diarrhée aqueuse.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shigella flexneri secrète plusieurs entérotoxines, ShET1, ShET2, PiC et SepA, provoquant une diarrhée aqueuse.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est responsable des deux-tiers des shigelloses en Afrique et en Asie[5]. La transmission se fait par contamination fécale mais elle peut être par voie sexuelle (sérotype 3a chez les homosexuels hommes[6]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est responsable des deux-tiers des shigelloses en Afrique et en Asie. La transmission se fait par contamination fécale mais elle peut être par voie sexuelle (sérotype 3a chez les homosexuels hommes).
 </t>
         </is>
       </c>
